--- a/Module-3/AWedergren - Module 3.2 Assignment.xlsx
+++ b/Module-3/AWedergren - Module 3.2 Assignment.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\csd\CSD-310\Module-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{870158A3-1C3F-4F51-9F0E-A97DFF8C0CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C734C032-BF06-4DB7-AD7A-CE299C7098CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3308" yWindow="3308" windowWidth="14145" windowHeight="12877" xr2:uid="{ECDFBF8D-1607-4072-94D0-F8B8A84989EE}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675" xr2:uid="{ECDFBF8D-1607-4072-94D0-F8B8A84989EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -98,7 +97,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -173,7 +172,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>

--- a/Module-3/AWedergren - Module 3.2 Assignment.xlsx
+++ b/Module-3/AWedergren - Module 3.2 Assignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\csd\CSD-310\Module-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C734C032-BF06-4DB7-AD7A-CE299C7098CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D75000F-F7D9-4C14-91DF-ED18465A9EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675" xr2:uid="{ECDFBF8D-1607-4072-94D0-F8B8A84989EE}"/>
   </bookViews>
